--- a/biology/Zoologie/Androctonus_crassicauda/Androctonus_crassicauda.xlsx
+++ b/biology/Zoologie/Androctonus_crassicauda/Androctonus_crassicauda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androctonus crassicauda est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Azerbaïdjan, en Arménie, en Turquie, en Syrie, en Irak, au Koweït, en Arabie saoudite, au Bahreïn, aux Émirats arabes unis, en Oman, au Yémen, en Jordanie, au Israël et en Égypte au Sinaï[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Azerbaïdjan, en Arménie, en Turquie, en Syrie, en Irak, au Koweït, en Arabie saoudite, au Bahreïn, aux Émirats arabes unis, en Oman, au Yémen, en Jordanie, au Israël et en Égypte au Sinaï.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Androctonus crassicauda mesure jusqu'à 90 mm[2].
-Ce scorpion mesure de 80 à 100 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Androctonus crassicauda mesure jusqu'à 90 mm.
+Ce scorpion mesure de 80 à 100 mm.
 Il est doté d'une grosse queue puissante, d'où il tire son épithète spécifique, "crassicauda".
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Olivier, 1807 : Voyage dans l'Empire Othoman, l'Égypte et la Perse, Henri Agasse, Paris, vol. 3, p. 96–97.</t>
         </is>
